--- a/DONE/DONE ENCODING/DE SAGUN, NANCY.xlsx
+++ b/DONE/DONE ENCODING/DE SAGUN, NANCY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861864EF-7FF7-4EA3-8708-882F4DDF272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,25 +28,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -309,12 +302,18 @@
   </si>
   <si>
     <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>LEGISLATIVE STAFF</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1243,7 +1242,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1285,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1349,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1409,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1475,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1538,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1636,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1695,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1760,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1803,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1878,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2064,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2130,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2188,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2254,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2310,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2385,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2428,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2494,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2550,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,25 +2646,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2677,25 +2676,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3002,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3012,7 +3011,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3020,34 +3019,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3067,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3085,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3107,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3116,7 +3115,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3129,7 +3128,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3146,7 +3145,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3190,7 +3189,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>30.709000000000003</v>
+        <v>33.459000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3200,12 +3199,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>46.709000000000003</v>
+        <v>49.459000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.334000000000003</v>
+        <v>49.084000000000003</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -3256,7 +3255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3276,7 +3275,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3296,7 +3295,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3316,7 +3315,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3362,7 +3361,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3382,7 +3381,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3402,7 +3401,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3426,7 +3425,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3448,7 +3447,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3538,7 +3537,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3636,7 +3635,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3708,7 +3707,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3754,7 +3753,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3828,7 +3827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3876,7 +3875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3894,7 +3893,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3914,7 +3913,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3954,7 +3953,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -3994,7 +3993,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4014,7 +4013,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4034,7 +4033,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4054,7 +4053,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4094,7 +4093,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4140,7 +4139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4162,7 +4161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4184,7 +4183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4206,7 +4205,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4226,7 +4225,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4246,7 +4245,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4264,7 +4263,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4284,7 +4283,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4344,7 +4343,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4364,7 +4363,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4384,7 +4383,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4404,7 +4403,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4424,7 +4423,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4444,7 +4443,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4464,7 +4463,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4484,7 +4483,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4508,7 +4507,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4526,7 +4525,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4566,7 +4565,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4586,7 +4585,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4606,7 +4605,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4626,7 +4625,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4646,7 +4645,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44743</v>
       </c>
@@ -4666,7 +4665,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44774</v>
       </c>
@@ -4686,7 +4685,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44805</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44835</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44866</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44896</v>
       </c>
@@ -4790,8 +4789,10 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="48" t="s">
+        <v>89</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4806,59 +4807,86 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>44927</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <f>EDATE(A84,1)</f>
+        <v>44958</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <f t="shared" ref="A86:A96" si="0">EDATE(A85,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
+      <c r="K86" s="49">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <f>EDATE(A86,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>1</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -4868,10 +4896,15 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="K87" s="49">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4886,8 +4919,11 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4902,8 +4938,11 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4918,8 +4957,11 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4934,8 +4976,11 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4950,8 +4995,11 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4966,8 +5014,11 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4982,8 +5033,11 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4998,8 +5052,11 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5014,7 +5071,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5030,7 +5087,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5046,7 +5103,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5062,7 +5119,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5078,7 +5135,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5094,7 +5151,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5110,7 +5167,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5126,7 +5183,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5142,7 +5199,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5158,7 +5215,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5174,7 +5231,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5190,7 +5247,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5206,7 +5263,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5222,7 +5279,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5238,7 +5295,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5254,7 +5311,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5270,7 +5327,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5286,7 +5343,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5302,7 +5359,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5318,7 +5375,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5334,7 +5391,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5350,7 +5407,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5366,7 +5423,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5382,7 +5439,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5398,7 +5455,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5414,7 +5471,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5430,7 +5487,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5446,7 +5503,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -5477,10 +5534,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5503,34 +5560,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="C11" sqref="C11:C91"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5551,11 +5608,13 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -5569,7 +5628,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5591,7 +5650,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5599,7 +5658,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5612,7 +5671,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5629,7 +5688,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5688,7 +5747,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5710,7 +5769,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5732,7 +5791,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5756,7 +5815,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5778,7 +5837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -5802,7 +5861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -5820,7 +5879,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -5844,7 +5903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -5868,7 +5927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -5892,7 +5951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -5910,7 +5969,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -5934,7 +5993,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -5956,7 +6015,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -5978,7 +6037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6000,7 +6059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6024,7 +6083,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6048,7 +6107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6068,7 +6127,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6092,7 +6151,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6116,7 +6175,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6136,7 +6195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6158,7 +6217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6180,7 +6239,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6198,7 +6257,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6222,7 +6281,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6246,7 +6305,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6262,7 +6321,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6278,7 +6337,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6294,7 +6353,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6310,7 +6369,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6326,7 +6385,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6342,7 +6401,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6358,7 +6417,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6374,7 +6433,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6390,7 +6449,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6406,7 +6465,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6422,7 +6481,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6438,7 +6497,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6454,7 +6513,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6470,7 +6529,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6486,7 +6545,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6502,7 +6561,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6518,7 +6577,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6534,7 +6593,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6550,7 +6609,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6566,7 +6625,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6582,7 +6641,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6598,7 +6657,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6614,7 +6673,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6630,7 +6689,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6646,7 +6705,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6662,7 +6721,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6678,7 +6737,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6694,7 +6753,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6710,7 +6769,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6726,7 +6785,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6742,7 +6801,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6758,7 +6817,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6774,7 +6833,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6790,7 +6849,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6806,7 +6865,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6822,7 +6881,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6838,7 +6897,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6854,7 +6913,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6870,7 +6929,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6886,7 +6945,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6902,7 +6961,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -6933,10 +6992,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6959,28 +7018,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6993,7 +7052,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7022,7 +7081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7046,17 +7105,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7077,7 +7136,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7104,7 +7163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7130,7 +7189,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7156,7 +7215,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7182,7 +7241,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7208,7 +7267,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7234,7 +7293,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7260,7 +7319,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7286,7 +7345,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7306,7 +7365,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7326,7 +7385,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7346,7 +7405,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7367,7 +7426,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7388,7 +7447,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7409,7 +7468,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7430,7 +7489,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7451,7 +7510,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7472,7 +7531,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7493,7 +7552,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7514,7 +7573,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7535,7 +7594,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7556,7 +7615,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7577,7 +7636,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7598,7 +7657,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7619,7 +7678,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7640,7 +7699,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7661,7 +7720,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7682,7 +7741,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7703,7 +7762,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7724,7 +7783,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7745,7 +7804,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7766,7 +7825,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7775,7 +7834,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7784,7 +7843,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7793,7 +7852,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7802,7 +7861,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7811,7 +7870,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7820,7 +7879,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7829,7 +7888,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7838,7 +7897,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7847,7 +7906,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7856,7 +7915,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7865,7 +7924,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7874,7 +7933,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7883,7 +7942,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7892,7 +7951,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7901,7 +7960,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7910,7 +7969,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7919,7 +7978,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7928,7 +7987,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7937,7 +7996,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7946,7 +8005,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7955,7 +8014,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7964,7 +8023,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7973,7 +8032,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7982,7 +8041,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7991,7 +8050,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8000,7 +8059,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8009,7 +8068,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8018,7 +8077,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8027,7 +8086,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
